--- a/Dados_tratados/Livro1.xlsx
+++ b/Dados_tratados/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Sistemas-de-Informacao\Dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A283412B-AD71-46D9-B36B-CD72F70F45FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EB982-5BF4-4A92-B122-9E208E0FA4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-12" windowWidth="17280" windowHeight="8880" xr2:uid="{8C18FECB-E3C2-4CC0-B9E6-B314FE690DC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C18FECB-E3C2-4CC0-B9E6-B314FE690DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Data</t>
   </si>
   <si>
     <t>Nº Animais Vendidos</t>
+  </si>
+  <si>
+    <t>Preços Finais</t>
   </si>
 </sst>
 </file>
@@ -49,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-816]mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-816]mmm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,7 +86,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +102,946 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59509011373578302"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7469816272965873E-2"/>
+          <c:y val="0.1902314814814815"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nº Animais Vendidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>[$-816]mmm/yy;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-724C-4FEE-A83F-3D484800E3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1525243471"/>
+        <c:axId val="1525241391"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1525243471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-816]mmm/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525241391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1525241391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525243471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E682F3CB-3DC6-BBF2-F046-C5612639DB58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,27 +1341,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A207C099-36C8-49EA-B2C1-548A98804B33}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44819</v>
       </c>
@@ -426,7 +1373,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44788</v>
       </c>
@@ -434,7 +1381,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44757</v>
       </c>
@@ -442,7 +1389,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44727</v>
       </c>
@@ -450,7 +1397,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44696</v>
       </c>
@@ -458,7 +1405,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44658</v>
       </c>
@@ -466,27 +1413,32 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44644</v>
       </c>
+      <c r="B8">
+        <v>3715</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44630</v>
+        <v>44609</v>
+      </c>
+      <c r="B9">
+        <v>2123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
         <v>44581</v>
+      </c>
+      <c r="B10">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dados_tratados/Livro1.xlsx
+++ b/Dados_tratados/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Sistemas-de-Informacao\Dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EB982-5BF4-4A92-B122-9E208E0FA4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5A3E3-A63B-495E-B721-B127DFE4CA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C18FECB-E3C2-4CC0-B9E6-B314FE690DC6}"/>
   </bookViews>
@@ -51,8 +51,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-816]mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,10 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,14 +123,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.59509011373578302"/>
-          <c:y val="4.6296296296296294E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Animais</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> vendidos/Preço</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -158,19 +184,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7469816272965873E-2"/>
-          <c:y val="0.1902314814814815"/>
-          <c:w val="0.87753018372703417"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -187,7 +203,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -210,12 +226,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$2:$A$10</c:f>
+              <c:f>Folha1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>[$-816]mmm/yy;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44819</c:v>
                 </c:pt>
@@ -243,15 +259,57 @@
                 <c:pt idx="8">
                   <c:v>44581</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$2:$B$11</c:f>
+              <c:f>Folha1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1387</c:v>
                 </c:pt>
@@ -279,13 +337,256 @@
                 <c:pt idx="8">
                   <c:v>1620</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5169</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-724C-4FEE-A83F-3D484800E3B0}"/>
+              <c16:uniqueId val="{00000000-8461-491B-AC62-CBFDF33E1ACA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preços Finais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>[$-816]mmm/yy;@</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8630.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9878.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10190.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12555.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13033.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13293.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20137.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11802.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8689.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14565.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9064.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7945.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7946.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8573.7800000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8150.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15073.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12877.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9511.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18509.060000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6335.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8364.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8260.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4627.7700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8461-491B-AC62-CBFDF33E1ACA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -297,20 +598,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1525243471"/>
-        <c:axId val="1525241391"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1525243471"/>
+        <c:axId val="1798823184"/>
+        <c:axId val="1798821104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1798823184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="[$-816]mmm/yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -318,8 +631,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -346,14 +659,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525241391"/>
+        <c:crossAx val="1798821104"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1525241391"/>
+        <c:axId val="1798821104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,8 +690,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -404,27 +721,51 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525243471"/>
+        <c:crossAx val="1798823184"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -501,7 +842,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -528,8 +869,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -630,7 +971,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -662,10 +1003,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -705,22 +1046,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -825,8 +1167,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -958,19 +1300,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -984,6 +1327,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1008,22 +1362,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E682F3CB-3DC6-BBF2-F046-C5612639DB58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F30AD63-D9FA-6087-B2C7-2F018C6378E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A207C099-36C8-49EA-B2C1-548A98804B33}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,6 +1726,9 @@
       <c r="B2">
         <v>1387</v>
       </c>
+      <c r="C2" s="3">
+        <v>8630.83</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -1380,6 +1737,9 @@
       <c r="B3">
         <v>2356</v>
       </c>
+      <c r="C3" s="3">
+        <v>9878.15</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1388,6 +1748,9 @@
       <c r="B4">
         <v>2302</v>
       </c>
+      <c r="C4" s="3">
+        <v>10190.39</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1396,6 +1759,9 @@
       <c r="B5">
         <v>2304</v>
       </c>
+      <c r="C5" s="3">
+        <v>12555.88</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1404,6 +1770,9 @@
       <c r="B6">
         <v>2091</v>
       </c>
+      <c r="C6" s="3">
+        <v>13033.73</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1412,6 +1781,9 @@
       <c r="B7">
         <v>2804</v>
       </c>
+      <c r="C7" s="3">
+        <v>13293.16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1420,6 +1792,9 @@
       <c r="B8">
         <v>3715</v>
       </c>
+      <c r="C8" s="3">
+        <v>20137.71</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -1428,6 +1803,9 @@
       <c r="B9">
         <v>2123</v>
       </c>
+      <c r="C9" s="3">
+        <v>11802.38</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -1436,9 +1814,175 @@
       <c r="B10">
         <v>1620</v>
       </c>
+      <c r="C10" s="3">
+        <v>8689.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B11">
+        <v>2963</v>
+      </c>
+      <c r="C11" s="3">
+        <v>14565.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B12">
+        <v>1193</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9064.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B13">
+        <v>927</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7945.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B14">
+        <v>1385</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7946.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B15">
+        <v>1896</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8573.7800000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B16">
+        <v>1737</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8150.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B17">
+        <v>3050</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15073.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B18">
+        <v>3225</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12877.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B19">
+        <v>2303</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9511.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B20">
+        <v>5169</v>
+      </c>
+      <c r="C20" s="3">
+        <v>18509.060000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B21">
+        <v>1612</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6335.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B22">
+        <v>2081</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8364.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B23">
+        <v>1576</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8260.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B24">
+        <v>666</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4627.7700000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dados_tratados/Livro1.xlsx
+++ b/Dados_tratados/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Sistemas-de-Informacao\Dados_tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5A3E3-A63B-495E-B721-B127DFE4CA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11488B08-B76E-4AEE-80AE-221A3E78DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C18FECB-E3C2-4CC0-B9E6-B314FE690DC6}"/>
   </bookViews>
@@ -54,7 +54,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-816]mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,16 +81,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,10 +1384,10 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1697,288 +1714,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A207C099-36C8-49EA-B2C1-548A98804B33}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>44819</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1387</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>8630.83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>44788</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2356</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>9878.15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>44757</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2302</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>10190.39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>44727</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2304</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>12555.88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>44696</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>2091</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>13033.73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44658</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>2804</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>13293.16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>44644</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>3715</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>20137.71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>44609</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>2123</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>11802.38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>44581</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1620</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>8689.67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>44546</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>2963</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>14565.36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>44518</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>1193</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>9064.64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>44483</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>927</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>7945.67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>44455</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1385</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>7946.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>44427</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1896</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>8573.7800000000007</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>44392</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>1737</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>8150.41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>44371</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>3050</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>15073.59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>44329</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>3225</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>12877.76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>44301</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>2303</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>9511.01</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>44273</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>5169</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>18509.060000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>44238</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1612</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>6335.02</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>44210</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>2081</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>8364.42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>44175</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>1576</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>8260.77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>44147</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>666</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>4627.7700000000004</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="1"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="1"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
